--- a/outputs/c__Bacilli.xlsx
+++ b/outputs/c__Bacilli.xlsx
@@ -1,131 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="c__Bacilli_pred-t" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="c__Bacilli_pred-t-p" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="c__Bacilli_pred-t" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="c__Bacilli_pred-t-p" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
-  <si>
-    <t>o__Acholeplasmatales</t>
-  </si>
-  <si>
-    <t>o__Bacillales</t>
-  </si>
-  <si>
-    <t>o__Erysipelotrichales</t>
-  </si>
-  <si>
-    <t>o__Izemoplasmatales</t>
-  </si>
-  <si>
-    <t>o__Lactobacillales</t>
-  </si>
-  <si>
-    <t>o__Mycoplasmatales</t>
-  </si>
-  <si>
-    <t>o__Paenibacillales</t>
-  </si>
-  <si>
-    <t>o__RF39</t>
-  </si>
-  <si>
-    <t>o__RFN20</t>
-  </si>
-  <si>
-    <t>o__Staphylococcales</t>
-  </si>
-  <si>
-    <t>prediction</t>
-  </si>
-  <si>
-    <t>RUG346</t>
-  </si>
-  <si>
-    <t>RUG810</t>
-  </si>
-  <si>
-    <t>RUG131</t>
-  </si>
-  <si>
-    <t>RUG021</t>
-  </si>
-  <si>
-    <t>RUG610</t>
-  </si>
-  <si>
-    <t>RUG293</t>
-  </si>
-  <si>
-    <t>RUG287</t>
-  </si>
-  <si>
-    <t>RUG840</t>
-  </si>
-  <si>
-    <t>RUG513</t>
-  </si>
-  <si>
-    <t>RUG832</t>
-  </si>
-  <si>
-    <t>RUG793</t>
-  </si>
-  <si>
-    <t>RUG206</t>
-  </si>
-  <si>
-    <t>hRUG889</t>
-  </si>
-  <si>
-    <t>RUG016</t>
-  </si>
-  <si>
-    <t>RUG017</t>
-  </si>
-  <si>
-    <t>RUG591</t>
-  </si>
-  <si>
-    <t>RUG262</t>
-  </si>
-  <si>
-    <t>RUG042</t>
-  </si>
-  <si>
-    <t>RUG664</t>
-  </si>
-  <si>
-    <t>RUG530</t>
-  </si>
-  <si>
-    <t>RUG319</t>
-  </si>
-  <si>
-    <t>RUG705</t>
-  </si>
-  <si>
-    <t>hRUG910</t>
-  </si>
-  <si>
-    <t>RUG630</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -168,18 +55,86 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -480,44 +435,68 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>o__Acholeplasmatales</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>o__Izemoplasmatales</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>o__Mycoplasmatales</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>o__Paenibacillales</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG346</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>-7.242358867798622</v>
@@ -549,13 +528,17 @@
       <c r="K2" t="n">
         <v>-5.907471980917656</v>
       </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG810</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>-9.233335418648689</v>
@@ -587,13 +570,17 @@
       <c r="K3" t="n">
         <v>-6.3384245596071</v>
       </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG131</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>-11.80501750436443</v>
@@ -625,13 +612,17 @@
       <c r="K4" t="n">
         <v>-5.661933163029319</v>
       </c>
-      <c r="L4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG021</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>-4.698084028739475</v>
@@ -663,13 +654,17 @@
       <c r="K5" t="n">
         <v>-7.219821439521525</v>
       </c>
-      <c r="L5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG610</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>-7.001293019588907</v>
@@ -701,13 +696,17 @@
       <c r="K6" t="n">
         <v>-7.409945964238455</v>
       </c>
-      <c r="L6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG293</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>-10.85305311512238</v>
@@ -739,13 +738,17 @@
       <c r="K7" t="n">
         <v>-8.959026758330236</v>
       </c>
-      <c r="L7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG287</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>-9.990225231427152</v>
@@ -777,13 +780,17 @@
       <c r="K8" t="n">
         <v>-5.075523540149266</v>
       </c>
-      <c r="L8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG840</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>-16.24123404167695</v>
@@ -815,13 +822,17 @@
       <c r="K9" t="n">
         <v>-4.082122252089136</v>
       </c>
-      <c r="L9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG513</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>-10.5080491456111</v>
@@ -853,13 +864,17 @@
       <c r="K10" t="n">
         <v>-5.792376341940134</v>
       </c>
-      <c r="L10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG832</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>-19.95959091072026</v>
@@ -891,13 +906,17 @@
       <c r="K11" t="n">
         <v>-6.003137600994475</v>
       </c>
-      <c r="L11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG793</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>-20.39882850842386</v>
@@ -929,13 +948,17 @@
       <c r="K12" t="n">
         <v>-7.404438084660615</v>
       </c>
-      <c r="L12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG206</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>-14.11174216406014</v>
@@ -967,13 +990,17 @@
       <c r="K13" t="n">
         <v>-8.289075994619459</v>
       </c>
-      <c r="L13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>o__Mycoplasmatales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hRUG889</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>-20.25598552967342</v>
@@ -1005,13 +1032,17 @@
       <c r="K14" t="n">
         <v>-6.028209877344346</v>
       </c>
-      <c r="L14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG016</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>-5.842793758007179</v>
@@ -1043,13 +1074,17 @@
       <c r="K15" t="n">
         <v>-1.005265918466844</v>
       </c>
-      <c r="L15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG017</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>-2.642601946280831</v>
@@ -1081,13 +1116,17 @@
       <c r="K16" t="n">
         <v>-4.304241561889683</v>
       </c>
-      <c r="L16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG591</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>-7.937561744696571</v>
@@ -1119,13 +1158,17 @@
       <c r="K17" t="n">
         <v>-9.007298218377214</v>
       </c>
-      <c r="L17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG262</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>-5.314716583791379</v>
@@ -1157,13 +1200,17 @@
       <c r="K18" t="n">
         <v>-4.073873192197555</v>
       </c>
-      <c r="L18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG042</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>-8.618526885237339</v>
@@ -1195,13 +1242,17 @@
       <c r="K19" t="n">
         <v>-8.077767875433484</v>
       </c>
-      <c r="L19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG664</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>-7.343835509468328</v>
@@ -1233,13 +1284,17 @@
       <c r="K20" t="n">
         <v>-6.089047576899118</v>
       </c>
-      <c r="L20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG530</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>-19.11503715512299</v>
@@ -1271,13 +1326,17 @@
       <c r="K21" t="n">
         <v>-9.180743925928814</v>
       </c>
-      <c r="L21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG319</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>-9.826271552892377</v>
@@ -1309,13 +1368,17 @@
       <c r="K22" t="n">
         <v>-1.793565044017317</v>
       </c>
-      <c r="L22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG705</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>-16.34201193337591</v>
@@ -1347,13 +1410,17 @@
       <c r="K23" t="n">
         <v>-8.384220234038967</v>
       </c>
-      <c r="L23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1" t="s">
-        <v>33</v>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>hRUG910</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>-17.52001893985044</v>
@@ -1385,13 +1452,17 @@
       <c r="K24" t="n">
         <v>-10.02597946466951</v>
       </c>
-      <c r="L24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1" t="s">
-        <v>34</v>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG630</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>-22.23956240343564</v>
@@ -1423,12 +1494,14 @@
       <c r="K25" t="n">
         <v>-5.803959929156433</v>
       </c>
-      <c r="L25" t="s">
-        <v>7</v>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1438,7 +1511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1446,47 +1519,83 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>o__Acholeplasmatales</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>o__Izemoplasmatales</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>o__Mycoplasmatales</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>o__Paenibacillales</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>o__Staphylococcales</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>gtdb-Tk</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>RUG346</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>2.399070049964923e-05</v>
@@ -1521,13 +1630,27 @@
       <c r="L2" t="n">
         <v>0.996408722004188</v>
       </c>
-      <c r="M2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>o__Bacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>RUG810</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>7.531992167206331e-07</v>
@@ -1562,13 +1685,27 @@
       <c r="L3" t="n">
         <v>0.9965422716441986</v>
       </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>RUG131</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>1.163908273341512e-07</v>
@@ -1603,13 +1740,27 @@
       <c r="L4" t="n">
         <v>0.9897372309504964</v>
       </c>
-      <c r="M4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>RUG021</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>0.002226468165769266</v>
@@ -1644,13 +1795,27 @@
       <c r="L5" t="n">
         <v>0.92131567552184</v>
       </c>
-      <c r="M5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>RUG610</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>8.218753725875299e-06</v>
@@ -1685,13 +1850,27 @@
       <c r="L6" t="n">
         <v>0.9948353343385423</v>
       </c>
-      <c r="M6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>RUG293</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>3.916048889945077e-06</v>
@@ -1726,13 +1905,27 @@
       <c r="L7" t="n">
         <v>0.9192354461079363</v>
       </c>
-      <c r="M7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>o__ML615J-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>RUG287</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>3.727877696995182e-07</v>
@@ -1767,13 +1960,27 @@
       <c r="L8" t="n">
         <v>0.9984637576925681</v>
       </c>
-      <c r="M8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>RUG840</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>1.801685963538371e-08</v>
@@ -1808,13 +2015,27 @@
       <c r="L9" t="n">
         <v>0.9932351824827973</v>
       </c>
-      <c r="M9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>RUG513</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>1.869258121429804e-07</v>
@@ -1849,13 +2070,27 @@
       <c r="L10" t="n">
         <v>0.9992554813539912</v>
       </c>
-      <c r="M10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>RUG832</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>7.406803832977096e-11</v>
@@ -1890,13 +2125,27 @@
       <c r="L11" t="n">
         <v>0.9987494897927799</v>
       </c>
-      <c r="M11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>RUG793</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>4.10549229909267e-12</v>
@@ -1931,13 +2180,27 @@
       <c r="L12" t="n">
         <v>0.9999864829721028</v>
       </c>
-      <c r="M12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>RUG206</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>5.44777907860027e-08</v>
@@ -1972,13 +2235,27 @@
       <c r="L13" t="n">
         <v>0.9861105347276035</v>
       </c>
-      <c r="M13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>o__Mycoplasmatales</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>o__Mycoplasmatales</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>o__Mycoplasmatales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>hRUG889</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>8.724343593524039e-11</v>
@@ -2013,13 +2290,27 @@
       <c r="L14" t="n">
         <v>0.9991063843458965</v>
       </c>
-      <c r="M14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1" t="s">
-        <v>24</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>RUG016</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>0.0001367327060373362</v>
@@ -2054,13 +2345,27 @@
       <c r="L15" t="n">
         <v>0.9738856498957857</v>
       </c>
-      <c r="M15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
-        <v>25</v>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>RUG017</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>0.04719862681025527</v>
@@ -2095,13 +2400,27 @@
       <c r="L16" t="n">
         <v>0.8579896532308038</v>
       </c>
-      <c r="M16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="1" t="s">
-        <v>26</v>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>RUG591</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>4.883993380935875e-06</v>
@@ -2136,13 +2455,27 @@
       <c r="L17" t="n">
         <v>0.9999263452094435</v>
       </c>
-      <c r="M17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>RUG262</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>9.617917811871519e-05</v>
@@ -2177,13 +2510,27 @@
       <c r="L18" t="n">
         <v>0.9968201993248033</v>
       </c>
-      <c r="M18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>RUG042</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>1.496291203348284e-07</v>
@@ -2218,13 +2565,27 @@
       <c r="L19" t="n">
         <v>0.9998505766463996</v>
       </c>
-      <c r="M19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>o__RFN20</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>RUG664</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>3.304852553284813e-05</v>
@@ -2259,13 +2620,27 @@
       <c r="L20" t="n">
         <v>0.9921576253928138</v>
       </c>
-      <c r="M20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="1" t="s">
-        <v>30</v>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>o__Lactobacillales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>RUG530</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>4.812964435627905e-11</v>
@@ -2300,13 +2675,27 @@
       <c r="L21" t="n">
         <v>0.9999360957027221</v>
       </c>
-      <c r="M21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="1" t="s">
-        <v>31</v>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>RUG319</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>4.409678414420015e-05</v>
@@ -2341,13 +2730,27 @@
       <c r="L22" t="n">
         <v>0.6293761132352088</v>
       </c>
-      <c r="M22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="1" t="s">
-        <v>32</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>reject</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>o__Erysipelotrichales</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>RUG705</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>9.867738385283976e-09</v>
@@ -2382,13 +2785,27 @@
       <c r="L23" t="n">
         <v>0.982227620288191</v>
       </c>
-      <c r="M23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="1" t="s">
-        <v>33</v>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>hRUG910</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>8.29983463084045e-09</v>
@@ -2423,13 +2840,27 @@
       <c r="L24" t="n">
         <v>0.9926278557058467</v>
       </c>
-      <c r="M24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="1" t="s">
-        <v>34</v>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>RUG630</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>2.911555702382335e-12</v>
@@ -2464,11 +2895,23 @@
       <c r="L25" t="n">
         <v>0.9997919244544144</v>
       </c>
-      <c r="M25" t="s">
-        <v>7</v>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>o__RF39</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>